--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_025.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_025.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295037EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Initiation of ATWS circuitry</t>
-  </si>
-  <si>
-    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
-  </si>
-  <si>
-    <t>(295024EK2.12) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA2.13) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for emergency plant shutdown </t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295001AK2.14) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
-  </si>
-  <si>
-    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295003AA1.06) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
-  </si>
-  <si>
-    <t>(295021AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Feeding and bleeding reactor vessel</t>
-  </si>
-  <si>
-    <t>(295020AA2.08) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) High-energy line break</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295033EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295010AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Temperature monitoring</t>
-  </si>
-  <si>
-    <t>(500000EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen ignition/deflagration</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(239002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) DC power</t>
-  </si>
-  <si>
-    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(215004A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM, rod block, and period alarm and trip setpoints</t>
-  </si>
-  <si>
-    <t>(209001A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Core spray line break</t>
+    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
+  </si>
+  <si>
+    <t>(295031EK2.12) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295037EK2.05) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
+  </si>
+  <si>
+    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
+  </si>
+  <si>
+    <t>(295016AK2.13) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.13) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal limits</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295019AK2.10) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295002AA1.01) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Condensate system</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295020AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Reactor pressure response</t>
+  </si>
+  <si>
+    <t>(295013AK2.02) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valve operation</t>
+  </si>
+  <si>
+    <t>(295036EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(259002A4.11) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) High-level lockout reset controls</t>
   </si>
   <si>
     <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
   </si>
   <si>
-    <t>(205000K4.05) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291002K1.19) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Theory and operation of fission chambers, and ion chambers</t>
-  </si>
-  <si>
-    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(300000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Service air cross-connect valve</t>
-  </si>
-  <si>
-    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(400000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Low-pressure core spray system</t>
-  </si>
-  <si>
-    <t>(259002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor feedwater flow</t>
-  </si>
-  <si>
-    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(212000K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(215005K4.04) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) LPRM detector replacement</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water cleanup</t>
-  </si>
-  <si>
-    <t>(239002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) AC power</t>
-  </si>
-  <si>
-    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
-  </si>
-  <si>
-    <t>(219000K4.08) Knowledge of (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(256000A3.03) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) System pressure</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (291004K1.14) PUMPS (CFR: 41.3) (CENTRIFUGAL) Relationship between flow from a pump and suction heads</t>
-  </si>
-  <si>
-    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
-  </si>
-  <si>
-    <t>(215001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(239003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) Radiation release</t>
-  </si>
-  <si>
-    <t>(233000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Torus/suppression pool cleanup system</t>
-  </si>
-  <si>
-    <t>(216000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) System venting</t>
-  </si>
-  <si>
-    <t>(241000A2.11) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical power</t>
-  </si>
-  <si>
-    <t>(230000K3.05) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+    <t>(510000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/traveling screen failure</t>
+  </si>
+  <si>
+    <t>(215003K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SRMS</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000K2.04) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Gland seal compressor (vacuum pump)</t>
+  </si>
+  <si>
+    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(263000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Voltage</t>
+  </si>
+  <si>
+    <t>(215005A3.06) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Maximum disagreement between flow comparator channels</t>
+  </si>
+  <si>
+    <t>(205000K4.01) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High temperature isolation /protection</t>
+  </si>
+  <si>
+    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(300000K3.17) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Heater drain system</t>
+  </si>
+  <si>
+    <t>(203000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Motor-operated valve failures</t>
+  </si>
+  <si>
+    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291003K1.02) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and operation of a speed controller</t>
+  </si>
+  <si>
+    <t>(264000K2.02) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel oil pumps</t>
+  </si>
+  <si>
+    <t>(209002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal condensate storage tank water level</t>
+  </si>
+  <si>
+    <t>(262002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Inverter outputs</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(218000K4.01) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of an inadvertent initiation of ADS logic</t>
+  </si>
+  <si>
+    <t>(212000A2.01) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS motor-generator set failure</t>
+  </si>
+  <si>
+    <t>(259002A4.04) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) FWRV lockup reset controls</t>
+  </si>
+  <si>
+    <t>(262001K3.01) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant AC loads</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(272000A3.12) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Process radiation monitor isolations</t>
+  </si>
+  <si>
+    <t>(219000K4.03) Knowledge of (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Diverting flow from the RPV to the containment during accident conditions</t>
+  </si>
+  <si>
+    <t>(286000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Effect of water spray on electrical components</t>
+  </si>
+  <si>
+    <t>(233000A4.09) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system pumps</t>
+  </si>
+  <si>
+    <t>(290001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offsite radioactive release rates</t>
+  </si>
+  <si>
+    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(216000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201003K4.04) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Scramming of the control rod with accumulator or RPV pressure</t>
+  </si>
+  <si>
+    <t>(290003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Fire protection system</t>
+  </si>
+  <si>
+    <t>(201005A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Reactor power</t>
   </si>
   <si>
     <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293007K1.11) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Explain methods of calculating core thermal power</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(226001A2.01) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate net positive suction head</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201001A2.14) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low drive header pressure</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292005K1.02) CONTROL RODS (CFR: 41.1) Name the material used for thermal neutron absorption in control rods</t>
+  </si>
+  <si>
+    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(293009K1.35) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe the effects of iodine and cadmium on pellet-clad interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(293006K1.20) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Describe the problems that will occur in emergency core cooling systems if the pumps are operated at lower than design flow for extended periods of time</t>
+  </si>
+  <si>
+    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
+  </si>
+  <si>
+    <t>(295022AA2.01) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Accumulator pressure</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(217000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trips</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A2.03) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
+    <t>A3</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295025</t>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295026</t>
   </si>
   <si>
     <t>295038</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295021</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295029</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295014</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>239003</t>
   </si>
   <si>
     <t>239001</t>
   </si>
   <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
     <t>230000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="s">
         <v>114</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1633,7 +1633,7 @@
         <v>4.2</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
         <v>114</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
